--- a/Assets/Excel/BuildingUpgradeSO.xlsx
+++ b/Assets/Excel/BuildingUpgradeSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\TeamProject_CheerUpMyHero\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922BA548-DD1D-4ABD-BAF8-0A6ED10068D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE688DBD-A4DB-4479-ADF0-D1270C59A8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{529EFE37-1A1C-40A3-AFC4-E608165EEB57}"/>
   </bookViews>
@@ -696,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A90E86-42B4-4D3F-9CF6-60D01B3BDC85}">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -781,7 +781,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>10001</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>10002</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>10003</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>10004</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>10005</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>10006</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>10007</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>10008</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>10009</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10010</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>20001</v>
+        <v>201</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>20002</v>
+        <v>202</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>20003</v>
+        <v>203</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>20004</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>20005</v>
+        <v>205</v>
       </c>
       <c r="B16" t="s">
         <v>28</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>20006</v>
+        <v>206</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>20007</v>
+        <v>207</v>
       </c>
       <c r="B18" t="s">
         <v>28</v>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>20008</v>
+        <v>208</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>20009</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
@@ -1660,7 +1660,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20010</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s">
         <v>28</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>30001</v>
+        <v>301</v>
       </c>
       <c r="B22" t="s">
         <v>38</v>
@@ -1723,7 +1723,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>30002</v>
+        <v>302</v>
       </c>
       <c r="B23" t="s">
         <v>38</v>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>30003</v>
+        <v>303</v>
       </c>
       <c r="B24" t="s">
         <v>38</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>30004</v>
+        <v>304</v>
       </c>
       <c r="B25" t="s">
         <v>38</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>30005</v>
+        <v>305</v>
       </c>
       <c r="B26" t="s">
         <v>38</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>30006</v>
+        <v>306</v>
       </c>
       <c r="B27" t="s">
         <v>38</v>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>30007</v>
+        <v>307</v>
       </c>
       <c r="B28" t="s">
         <v>38</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>30008</v>
+        <v>308</v>
       </c>
       <c r="B29" t="s">
         <v>38</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>30009</v>
+        <v>309</v>
       </c>
       <c r="B30" t="s">
         <v>38</v>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30010</v>
+        <v>310</v>
       </c>
       <c r="B31" t="s">
         <v>38</v>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>40001</v>
+        <v>401</v>
       </c>
       <c r="B32" t="s">
         <v>66</v>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>40002</v>
+        <v>402</v>
       </c>
       <c r="B33" t="s">
         <v>66</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>40003</v>
+        <v>403</v>
       </c>
       <c r="B34" t="s">
         <v>66</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>40004</v>
+        <v>404</v>
       </c>
       <c r="B35" t="s">
         <v>66</v>
@@ -2400,7 +2400,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>40005</v>
+        <v>405</v>
       </c>
       <c r="B36" t="s">
         <v>66</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>40006</v>
+        <v>406</v>
       </c>
       <c r="B37" t="s">
         <v>66</v>
@@ -2488,7 +2488,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>40007</v>
+        <v>407</v>
       </c>
       <c r="B38" t="s">
         <v>66</v>
@@ -2532,7 +2532,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>40008</v>
+        <v>408</v>
       </c>
       <c r="B39" t="s">
         <v>66</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>40009</v>
+        <v>409</v>
       </c>
       <c r="B40" t="s">
         <v>66</v>
@@ -2620,7 +2620,7 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40010</v>
+        <v>410</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>

--- a/Assets/Excel/BuildingUpgradeSO.xlsx
+++ b/Assets/Excel/BuildingUpgradeSO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\TeamProject_CheerUpMyHero\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE688DBD-A4DB-4479-ADF0-D1270C59A8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA8F641-735C-40A0-BFCD-7B916138E4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{529EFE37-1A1C-40A3-AFC4-E608165EEB57}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{529EFE37-1A1C-40A3-AFC4-E608165EEB57}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingUpgrade" sheetId="1" r:id="rId1"/>
@@ -696,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A90E86-42B4-4D3F-9CF6-60D01B3BDC85}">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:A41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -814,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -856,7 +856,7 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -898,7 +898,7 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -946,7 +946,7 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -1000,7 +1000,7 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -1054,7 +1054,7 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
@@ -1108,7 +1108,7 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
@@ -1162,7 +1162,7 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>203</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
@@ -1306,7 +1306,7 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>204</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
@@ -1345,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>205</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
@@ -1399,7 +1399,7 @@
         <v>4</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>206</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
@@ -1453,7 +1453,7 @@
         <v>5</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
@@ -1507,7 +1507,7 @@
         <v>6</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>208</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
@@ -1561,7 +1561,7 @@
         <v>7</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>209</v>
       </c>
       <c r="E19" t="s">
         <v>15</v>
@@ -1615,7 +1615,7 @@
         <v>8</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>210</v>
       </c>
       <c r="E20" t="s">
         <v>15</v>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>302</v>
       </c>
       <c r="E22" t="s">
         <v>15</v>
@@ -1732,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>303</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
@@ -1770,7 +1770,7 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>304</v>
       </c>
       <c r="E24" t="s">
         <v>15</v>
@@ -1814,7 +1814,7 @@
         <v>3</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>305</v>
       </c>
       <c r="E25" t="s">
         <v>15</v>
@@ -1867,7 +1867,7 @@
         <v>4</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>306</v>
       </c>
       <c r="E26" t="s">
         <v>15</v>
@@ -1920,7 +1920,7 @@
         <v>5</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>307</v>
       </c>
       <c r="E27" t="s">
         <v>15</v>
@@ -1979,7 +1979,7 @@
         <v>6</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>308</v>
       </c>
       <c r="E28" t="s">
         <v>15</v>
@@ -2056,7 +2056,7 @@
         <v>7</v>
       </c>
       <c r="D29">
-        <v>8</v>
+        <v>309</v>
       </c>
       <c r="E29" t="s">
         <v>15</v>
@@ -2133,7 +2133,7 @@
         <v>8</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>310</v>
       </c>
       <c r="E30" t="s">
         <v>15</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>402</v>
       </c>
       <c r="E32" t="s">
         <v>15</v>
@@ -2295,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>403</v>
       </c>
       <c r="E33" t="s">
         <v>15</v>
@@ -2333,7 +2333,7 @@
         <v>2</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>404</v>
       </c>
       <c r="E34" t="s">
         <v>15</v>
@@ -2371,7 +2371,7 @@
         <v>3</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>405</v>
       </c>
       <c r="E35" t="s">
         <v>15</v>
@@ -2409,7 +2409,7 @@
         <v>4</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>406</v>
       </c>
       <c r="E36" t="s">
         <v>15</v>
@@ -2453,7 +2453,7 @@
         <v>5</v>
       </c>
       <c r="D37">
-        <v>6</v>
+        <v>407</v>
       </c>
       <c r="E37" t="s">
         <v>15</v>
@@ -2497,7 +2497,7 @@
         <v>6</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>408</v>
       </c>
       <c r="E38" t="s">
         <v>15</v>
@@ -2541,7 +2541,7 @@
         <v>7</v>
       </c>
       <c r="D39">
-        <v>8</v>
+        <v>409</v>
       </c>
       <c r="E39" t="s">
         <v>15</v>
@@ -2585,7 +2585,7 @@
         <v>8</v>
       </c>
       <c r="D40">
-        <v>9</v>
+        <v>410</v>
       </c>
       <c r="E40" t="s">
         <v>15</v>

--- a/Assets/Excel/BuildingUpgradeSO.xlsx
+++ b/Assets/Excel/BuildingUpgradeSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\TeamProject_CheerUpMyHero\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA8F641-735C-40A0-BFCD-7B916138E4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509BABC7-7B31-40F0-892A-0BE810542A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{529EFE37-1A1C-40A3-AFC4-E608165EEB57}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="86">
   <si>
     <t>idNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,13 +211,6 @@
     <t>MagicStoneFindChance</t>
   </si>
   <si>
-    <t>magicStoneProduction</t>
-  </si>
-  <si>
-    <t>magicStoneProduction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>벌목장을 건설하여 안정적으로 목재를 확보합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -319,6 +312,18 @@
   </si>
   <si>
     <t>MagicStoneFindChance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanSummonRareUnits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanSummonEpicUnits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicStoneProduction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -696,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A90E86-42B4-4D3F-9CF6-60D01B3BDC85}">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -823,7 +828,7 @@
         <v>200</v>
       </c>
       <c r="M3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N3">
         <v>10</v>
@@ -832,7 +837,7 @@
         <v>10</v>
       </c>
       <c r="P3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -865,7 +870,7 @@
         <v>450</v>
       </c>
       <c r="M4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N4">
         <v>15</v>
@@ -874,7 +879,7 @@
         <v>15</v>
       </c>
       <c r="P4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q4">
         <v>10</v>
@@ -913,7 +918,7 @@
         <v>50</v>
       </c>
       <c r="M5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N5">
         <v>20</v>
@@ -922,7 +927,7 @@
         <v>20</v>
       </c>
       <c r="P5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q5">
         <v>15</v>
@@ -967,7 +972,7 @@
         <v>20</v>
       </c>
       <c r="M6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N6">
         <v>25</v>
@@ -976,7 +981,7 @@
         <v>25</v>
       </c>
       <c r="P6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q6">
         <v>20</v>
@@ -1021,7 +1026,7 @@
         <v>35</v>
       </c>
       <c r="M7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N7">
         <v>30</v>
@@ -1030,7 +1035,7 @@
         <v>30</v>
       </c>
       <c r="P7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q7">
         <v>25</v>
@@ -1075,7 +1080,7 @@
         <v>50</v>
       </c>
       <c r="M8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N8">
         <v>35</v>
@@ -1084,7 +1089,7 @@
         <v>35</v>
       </c>
       <c r="P8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q8">
         <v>30</v>
@@ -1129,7 +1134,7 @@
         <v>75</v>
       </c>
       <c r="M9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N9">
         <v>40</v>
@@ -1138,7 +1143,7 @@
         <v>40</v>
       </c>
       <c r="P9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q9">
         <v>35</v>
@@ -1183,7 +1188,7 @@
         <v>100</v>
       </c>
       <c r="M10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N10">
         <v>45</v>
@@ -1192,7 +1197,7 @@
         <v>45</v>
       </c>
       <c r="P10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q10">
         <v>40</v>
@@ -1216,7 +1221,7 @@
         <v>9</v>
       </c>
       <c r="M11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N11">
         <v>50</v>
@@ -1225,7 +1230,7 @@
         <v>50</v>
       </c>
       <c r="P11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q11">
         <v>50</v>
@@ -1258,7 +1263,7 @@
         <v>150</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Z12" s="1"/>
     </row>
@@ -1282,7 +1287,7 @@
         <v>300</v>
       </c>
       <c r="M13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N13">
         <v>10</v>
@@ -1321,7 +1326,7 @@
         <v>50</v>
       </c>
       <c r="M14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N14">
         <v>20</v>
@@ -1366,7 +1371,7 @@
         <v>20</v>
       </c>
       <c r="M15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N15">
         <v>30</v>
@@ -1375,7 +1380,7 @@
         <v>30</v>
       </c>
       <c r="P15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q15">
         <v>10</v>
@@ -1420,7 +1425,7 @@
         <v>35</v>
       </c>
       <c r="M16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N16">
         <v>40</v>
@@ -1429,7 +1434,7 @@
         <v>40</v>
       </c>
       <c r="P16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q16">
         <v>10</v>
@@ -1474,7 +1479,7 @@
         <v>50</v>
       </c>
       <c r="M17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N17">
         <v>50</v>
@@ -1483,7 +1488,7 @@
         <v>50</v>
       </c>
       <c r="P17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -1528,7 +1533,7 @@
         <v>75</v>
       </c>
       <c r="M18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N18">
         <v>60</v>
@@ -1537,7 +1542,7 @@
         <v>60</v>
       </c>
       <c r="P18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q18">
         <v>20</v>
@@ -1582,7 +1587,7 @@
         <v>100</v>
       </c>
       <c r="M19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N19">
         <v>70</v>
@@ -1591,7 +1596,7 @@
         <v>70</v>
       </c>
       <c r="P19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q19">
         <v>20</v>
@@ -1636,7 +1641,7 @@
         <v>150</v>
       </c>
       <c r="M20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N20">
         <v>80</v>
@@ -1645,7 +1650,7 @@
         <v>80</v>
       </c>
       <c r="P20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q20">
         <v>20</v>
@@ -1669,7 +1674,7 @@
         <v>9</v>
       </c>
       <c r="M21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N21">
         <v>100</v>
@@ -1678,7 +1683,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q21">
         <v>30</v>
@@ -1717,7 +1722,7 @@
         <v>10</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Z22" s="1"/>
     </row>
@@ -1747,7 +1752,7 @@
         <v>50</v>
       </c>
       <c r="M23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N23">
         <v>5</v>
@@ -1756,7 +1761,7 @@
         <v>5</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
@@ -1791,7 +1796,7 @@
         <v>30</v>
       </c>
       <c r="M24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N24">
         <v>10</v>
@@ -1800,7 +1805,7 @@
         <v>10</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
@@ -1835,7 +1840,7 @@
         <v>60</v>
       </c>
       <c r="M25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N25">
         <v>15</v>
@@ -1844,7 +1849,7 @@
         <v>15</v>
       </c>
       <c r="P25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -1853,7 +1858,7 @@
         <v>5</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
@@ -1888,7 +1893,7 @@
         <v>100</v>
       </c>
       <c r="M26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N26">
         <v>20</v>
@@ -1897,7 +1902,7 @@
         <v>20</v>
       </c>
       <c r="P26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -1906,7 +1911,7 @@
         <v>5</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
@@ -1947,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N27">
         <v>25</v>
@@ -1956,7 +1961,7 @@
         <v>25</v>
       </c>
       <c r="P27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -1965,7 +1970,7 @@
         <v>5</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
@@ -2006,7 +2011,7 @@
         <v>10</v>
       </c>
       <c r="M28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N28">
         <v>30</v>
@@ -2015,7 +2020,7 @@
         <v>30</v>
       </c>
       <c r="P28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -2024,7 +2029,7 @@
         <v>10</v>
       </c>
       <c r="S28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T28">
         <v>10</v>
@@ -2033,7 +2038,7 @@
         <v>10</v>
       </c>
       <c r="V28" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="W28">
         <v>1</v>
@@ -2042,7 +2047,7 @@
         <v>5</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
@@ -2083,7 +2088,7 @@
         <v>25</v>
       </c>
       <c r="M29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N29">
         <v>35</v>
@@ -2092,7 +2097,7 @@
         <v>35</v>
       </c>
       <c r="P29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q29">
         <v>10</v>
@@ -2110,7 +2115,7 @@
         <v>20</v>
       </c>
       <c r="V29" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="W29">
         <v>3</v>
@@ -2119,7 +2124,7 @@
         <v>8</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
@@ -2160,7 +2165,7 @@
         <v>50</v>
       </c>
       <c r="M30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N30">
         <v>40</v>
@@ -2169,7 +2174,7 @@
         <v>40</v>
       </c>
       <c r="P30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q30">
         <v>10</v>
@@ -2187,7 +2192,7 @@
         <v>30</v>
       </c>
       <c r="V30" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="W30">
         <v>5</v>
@@ -2196,7 +2201,7 @@
         <v>10</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
@@ -2210,7 +2215,7 @@
         <v>9</v>
       </c>
       <c r="M31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N31">
         <v>50</v>
@@ -2219,7 +2224,7 @@
         <v>50</v>
       </c>
       <c r="P31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q31">
         <v>15</v>
@@ -2237,7 +2242,7 @@
         <v>50</v>
       </c>
       <c r="V31" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="W31">
         <v>10</v>
@@ -2246,7 +2251,7 @@
         <v>15</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
@@ -2254,7 +2259,7 @@
         <v>401</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2281,7 +2286,7 @@
         <v>10</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.3">
@@ -2289,7 +2294,7 @@
         <v>402</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2316,10 +2321,16 @@
         <v>25</v>
       </c>
       <c r="M33" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="N33">
+        <v>20</v>
+      </c>
+      <c r="O33">
+        <v>20</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
@@ -2327,7 +2338,7 @@
         <v>403</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -2354,10 +2365,16 @@
         <v>60</v>
       </c>
       <c r="M34" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="N34">
+        <v>30</v>
+      </c>
+      <c r="O34">
+        <v>30</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.3">
@@ -2365,7 +2382,7 @@
         <v>404</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -2392,10 +2409,25 @@
         <v>100</v>
       </c>
       <c r="M35" t="s">
+        <v>81</v>
+      </c>
+      <c r="N35">
+        <v>40</v>
+      </c>
+      <c r="O35">
+        <v>40</v>
+      </c>
+      <c r="P35" t="s">
         <v>83</v>
       </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
       <c r="Y35" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.3">
@@ -2403,7 +2435,7 @@
         <v>405</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -2436,10 +2468,25 @@
         <v>1</v>
       </c>
       <c r="M36" t="s">
+        <v>81</v>
+      </c>
+      <c r="N36">
+        <v>50</v>
+      </c>
+      <c r="O36">
+        <v>50</v>
+      </c>
+      <c r="P36" t="s">
         <v>83</v>
       </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
       <c r="Y36" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.3">
@@ -2447,7 +2494,7 @@
         <v>406</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -2480,10 +2527,25 @@
         <v>15</v>
       </c>
       <c r="M37" t="s">
+        <v>81</v>
+      </c>
+      <c r="N37">
+        <v>60</v>
+      </c>
+      <c r="O37">
+        <v>60</v>
+      </c>
+      <c r="P37" t="s">
         <v>83</v>
       </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
       <c r="Y37" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
@@ -2491,7 +2553,7 @@
         <v>407</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -2524,10 +2586,25 @@
         <v>35</v>
       </c>
       <c r="M38" t="s">
+        <v>81</v>
+      </c>
+      <c r="N38">
+        <v>70</v>
+      </c>
+      <c r="O38">
+        <v>70</v>
+      </c>
+      <c r="P38" t="s">
         <v>83</v>
       </c>
+      <c r="Q38">
+        <v>2</v>
+      </c>
+      <c r="R38">
+        <v>2</v>
+      </c>
       <c r="Y38" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.3">
@@ -2535,7 +2612,7 @@
         <v>408</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -2568,10 +2645,25 @@
         <v>70</v>
       </c>
       <c r="M39" t="s">
+        <v>81</v>
+      </c>
+      <c r="N39">
+        <v>80</v>
+      </c>
+      <c r="O39">
+        <v>80</v>
+      </c>
+      <c r="P39" t="s">
         <v>83</v>
       </c>
+      <c r="Q39">
+        <v>2</v>
+      </c>
+      <c r="R39">
+        <v>2</v>
+      </c>
       <c r="Y39" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.3">
@@ -2579,7 +2671,7 @@
         <v>409</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C40">
         <v>8</v>
@@ -2612,10 +2704,25 @@
         <v>120</v>
       </c>
       <c r="M40" t="s">
+        <v>81</v>
+      </c>
+      <c r="N40">
+        <v>90</v>
+      </c>
+      <c r="O40">
+        <v>90</v>
+      </c>
+      <c r="P40" t="s">
         <v>83</v>
       </c>
+      <c r="Q40">
+        <v>2</v>
+      </c>
+      <c r="R40">
+        <v>2</v>
+      </c>
       <c r="Y40" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
@@ -2623,16 +2730,40 @@
         <v>410</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C41">
         <v>9</v>
       </c>
       <c r="M41" t="s">
+        <v>81</v>
+      </c>
+      <c r="N41">
+        <v>100</v>
+      </c>
+      <c r="O41">
+        <v>100</v>
+      </c>
+      <c r="P41" t="s">
         <v>83</v>
       </c>
+      <c r="Q41">
+        <v>3</v>
+      </c>
+      <c r="R41">
+        <v>3</v>
+      </c>
+      <c r="S41" t="s">
+        <v>84</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
       <c r="Y41" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/BuildingUpgradeSO.xlsx
+++ b/Assets/Excel/BuildingUpgradeSO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\TeamProject_CheerUpMyHero\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509BABC7-7B31-40F0-892A-0BE810542A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BC6B9D-0219-48AA-8FE6-851B1DBE4864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{529EFE37-1A1C-40A3-AFC4-E608165EEB57}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{529EFE37-1A1C-40A3-AFC4-E608165EEB57}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingUpgrade" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="85">
   <si>
     <t>idNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,10 +281,6 @@
   </si>
   <si>
     <t>병영9레벨입니다.</t>
-  </si>
-  <si>
-    <t>IncreaseMaxFood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>IncreaseFoodGainSpeed</t>
@@ -701,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A90E86-42B4-4D3F-9CF6-60D01B3BDC85}">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -827,17 +823,8 @@
       <c r="F3">
         <v>200</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
         <v>75</v>
-      </c>
-      <c r="N3">
-        <v>10</v>
-      </c>
-      <c r="O3">
-        <v>10</v>
-      </c>
-      <c r="P3" t="s">
-        <v>76</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -869,17 +856,8 @@
       <c r="F4">
         <v>450</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>75</v>
-      </c>
-      <c r="N4">
-        <v>15</v>
-      </c>
-      <c r="O4">
-        <v>15</v>
-      </c>
-      <c r="P4" t="s">
-        <v>76</v>
       </c>
       <c r="Q4">
         <v>10</v>
@@ -917,17 +895,8 @@
       <c r="H5">
         <v>50</v>
       </c>
-      <c r="M5" t="s">
+      <c r="P5" t="s">
         <v>75</v>
-      </c>
-      <c r="N5">
-        <v>20</v>
-      </c>
-      <c r="O5">
-        <v>20</v>
-      </c>
-      <c r="P5" t="s">
-        <v>76</v>
       </c>
       <c r="Q5">
         <v>15</v>
@@ -971,17 +940,8 @@
       <c r="J6">
         <v>20</v>
       </c>
-      <c r="M6" t="s">
+      <c r="P6" t="s">
         <v>75</v>
-      </c>
-      <c r="N6">
-        <v>25</v>
-      </c>
-      <c r="O6">
-        <v>25</v>
-      </c>
-      <c r="P6" t="s">
-        <v>76</v>
       </c>
       <c r="Q6">
         <v>20</v>
@@ -1025,17 +985,8 @@
       <c r="J7">
         <v>35</v>
       </c>
-      <c r="M7" t="s">
+      <c r="P7" t="s">
         <v>75</v>
-      </c>
-      <c r="N7">
-        <v>30</v>
-      </c>
-      <c r="O7">
-        <v>30</v>
-      </c>
-      <c r="P7" t="s">
-        <v>76</v>
       </c>
       <c r="Q7">
         <v>25</v>
@@ -1079,17 +1030,8 @@
       <c r="J8">
         <v>50</v>
       </c>
-      <c r="M8" t="s">
+      <c r="P8" t="s">
         <v>75</v>
-      </c>
-      <c r="N8">
-        <v>35</v>
-      </c>
-      <c r="O8">
-        <v>35</v>
-      </c>
-      <c r="P8" t="s">
-        <v>76</v>
       </c>
       <c r="Q8">
         <v>30</v>
@@ -1133,17 +1075,8 @@
       <c r="J9">
         <v>75</v>
       </c>
-      <c r="M9" t="s">
+      <c r="P9" t="s">
         <v>75</v>
-      </c>
-      <c r="N9">
-        <v>40</v>
-      </c>
-      <c r="O9">
-        <v>40</v>
-      </c>
-      <c r="P9" t="s">
-        <v>76</v>
       </c>
       <c r="Q9">
         <v>35</v>
@@ -1187,17 +1120,8 @@
       <c r="J10">
         <v>100</v>
       </c>
-      <c r="M10" t="s">
+      <c r="P10" t="s">
         <v>75</v>
-      </c>
-      <c r="N10">
-        <v>45</v>
-      </c>
-      <c r="O10">
-        <v>45</v>
-      </c>
-      <c r="P10" t="s">
-        <v>76</v>
       </c>
       <c r="Q10">
         <v>40</v>
@@ -1220,17 +1144,8 @@
       <c r="C11">
         <v>9</v>
       </c>
-      <c r="M11" t="s">
+      <c r="P11" t="s">
         <v>75</v>
-      </c>
-      <c r="N11">
-        <v>50</v>
-      </c>
-      <c r="O11">
-        <v>50</v>
-      </c>
-      <c r="P11" t="s">
-        <v>76</v>
       </c>
       <c r="Q11">
         <v>50</v>
@@ -1287,7 +1202,7 @@
         <v>300</v>
       </c>
       <c r="M13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N13">
         <v>10</v>
@@ -1326,7 +1241,7 @@
         <v>50</v>
       </c>
       <c r="M14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N14">
         <v>20</v>
@@ -1371,7 +1286,7 @@
         <v>20</v>
       </c>
       <c r="M15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N15">
         <v>30</v>
@@ -1380,7 +1295,7 @@
         <v>30</v>
       </c>
       <c r="P15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q15">
         <v>10</v>
@@ -1425,7 +1340,7 @@
         <v>35</v>
       </c>
       <c r="M16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N16">
         <v>40</v>
@@ -1434,7 +1349,7 @@
         <v>40</v>
       </c>
       <c r="P16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q16">
         <v>10</v>
@@ -1479,7 +1394,7 @@
         <v>50</v>
       </c>
       <c r="M17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N17">
         <v>50</v>
@@ -1488,7 +1403,7 @@
         <v>50</v>
       </c>
       <c r="P17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -1533,7 +1448,7 @@
         <v>75</v>
       </c>
       <c r="M18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N18">
         <v>60</v>
@@ -1542,7 +1457,7 @@
         <v>60</v>
       </c>
       <c r="P18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q18">
         <v>20</v>
@@ -1587,7 +1502,7 @@
         <v>100</v>
       </c>
       <c r="M19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N19">
         <v>70</v>
@@ -1596,7 +1511,7 @@
         <v>70</v>
       </c>
       <c r="P19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q19">
         <v>20</v>
@@ -1641,7 +1556,7 @@
         <v>150</v>
       </c>
       <c r="M20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N20">
         <v>80</v>
@@ -1650,7 +1565,7 @@
         <v>80</v>
       </c>
       <c r="P20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q20">
         <v>20</v>
@@ -1674,7 +1589,7 @@
         <v>9</v>
       </c>
       <c r="M21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N21">
         <v>100</v>
@@ -1683,7 +1598,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q21">
         <v>30</v>
@@ -1752,7 +1667,7 @@
         <v>50</v>
       </c>
       <c r="M23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N23">
         <v>5</v>
@@ -1796,7 +1711,7 @@
         <v>30</v>
       </c>
       <c r="M24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N24">
         <v>10</v>
@@ -1840,16 +1755,16 @@
         <v>60</v>
       </c>
       <c r="M25" t="s">
+        <v>78</v>
+      </c>
+      <c r="N25">
+        <v>15</v>
+      </c>
+      <c r="O25">
+        <v>15</v>
+      </c>
+      <c r="P25" t="s">
         <v>79</v>
-      </c>
-      <c r="N25">
-        <v>15</v>
-      </c>
-      <c r="O25">
-        <v>15</v>
-      </c>
-      <c r="P25" t="s">
-        <v>80</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -1893,7 +1808,7 @@
         <v>100</v>
       </c>
       <c r="M26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N26">
         <v>20</v>
@@ -1902,7 +1817,7 @@
         <v>20</v>
       </c>
       <c r="P26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -1952,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N27">
         <v>25</v>
@@ -1961,7 +1876,7 @@
         <v>25</v>
       </c>
       <c r="P27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -2011,7 +1926,7 @@
         <v>10</v>
       </c>
       <c r="M28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N28">
         <v>30</v>
@@ -2020,7 +1935,7 @@
         <v>30</v>
       </c>
       <c r="P28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -2029,7 +1944,7 @@
         <v>10</v>
       </c>
       <c r="S28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T28">
         <v>10</v>
@@ -2038,7 +1953,7 @@
         <v>10</v>
       </c>
       <c r="V28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W28">
         <v>1</v>
@@ -2088,7 +2003,7 @@
         <v>25</v>
       </c>
       <c r="M29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N29">
         <v>35</v>
@@ -2097,7 +2012,7 @@
         <v>35</v>
       </c>
       <c r="P29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q29">
         <v>10</v>
@@ -2115,7 +2030,7 @@
         <v>20</v>
       </c>
       <c r="V29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W29">
         <v>3</v>
@@ -2165,7 +2080,7 @@
         <v>50</v>
       </c>
       <c r="M30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N30">
         <v>40</v>
@@ -2174,7 +2089,7 @@
         <v>40</v>
       </c>
       <c r="P30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q30">
         <v>10</v>
@@ -2192,7 +2107,7 @@
         <v>30</v>
       </c>
       <c r="V30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W30">
         <v>5</v>
@@ -2215,7 +2130,7 @@
         <v>9</v>
       </c>
       <c r="M31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N31">
         <v>50</v>
@@ -2224,7 +2139,7 @@
         <v>50</v>
       </c>
       <c r="P31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q31">
         <v>15</v>
@@ -2242,7 +2157,7 @@
         <v>50</v>
       </c>
       <c r="V31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W31">
         <v>10</v>
@@ -2321,7 +2236,7 @@
         <v>25</v>
       </c>
       <c r="M33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N33">
         <v>20</v>
@@ -2365,7 +2280,7 @@
         <v>60</v>
       </c>
       <c r="M34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N34">
         <v>30</v>
@@ -2409,7 +2324,7 @@
         <v>100</v>
       </c>
       <c r="M35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N35">
         <v>40</v>
@@ -2418,7 +2333,7 @@
         <v>40</v>
       </c>
       <c r="P35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q35">
         <v>1</v>
@@ -2468,7 +2383,7 @@
         <v>1</v>
       </c>
       <c r="M36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N36">
         <v>50</v>
@@ -2477,7 +2392,7 @@
         <v>50</v>
       </c>
       <c r="P36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -2527,7 +2442,7 @@
         <v>15</v>
       </c>
       <c r="M37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N37">
         <v>60</v>
@@ -2536,7 +2451,7 @@
         <v>60</v>
       </c>
       <c r="P37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q37">
         <v>1</v>
@@ -2586,7 +2501,7 @@
         <v>35</v>
       </c>
       <c r="M38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N38">
         <v>70</v>
@@ -2595,7 +2510,7 @@
         <v>70</v>
       </c>
       <c r="P38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -2645,7 +2560,7 @@
         <v>70</v>
       </c>
       <c r="M39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N39">
         <v>80</v>
@@ -2654,7 +2569,7 @@
         <v>80</v>
       </c>
       <c r="P39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -2704,7 +2619,7 @@
         <v>120</v>
       </c>
       <c r="M40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N40">
         <v>90</v>
@@ -2713,7 +2628,7 @@
         <v>90</v>
       </c>
       <c r="P40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -2736,7 +2651,7 @@
         <v>9</v>
       </c>
       <c r="M41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N41">
         <v>100</v>
@@ -2745,7 +2660,7 @@
         <v>100</v>
       </c>
       <c r="P41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -2754,7 +2669,7 @@
         <v>3</v>
       </c>
       <c r="S41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T41">
         <v>1</v>

--- a/Assets/Excel/BuildingUpgradeSO.xlsx
+++ b/Assets/Excel/BuildingUpgradeSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\TeamProject_CheerUpMyHero\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BC6B9D-0219-48AA-8FE6-851B1DBE4864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEFAEB1-5BF1-49D4-90B8-EA1AD5A371B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{529EFE37-1A1C-40A3-AFC4-E608165EEB57}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="86">
   <si>
     <t>idNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,6 +320,10 @@
   </si>
   <si>
     <t>MagicStoneProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaximumFood</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -698,7 +702,7 @@
   <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -823,6 +827,15 @@
       <c r="F3">
         <v>200</v>
       </c>
+      <c r="M3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3">
+        <v>500</v>
+      </c>
+      <c r="O3">
+        <v>500</v>
+      </c>
       <c r="P3" t="s">
         <v>75</v>
       </c>
@@ -856,6 +869,15 @@
       <c r="F4">
         <v>450</v>
       </c>
+      <c r="M4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4">
+        <v>750</v>
+      </c>
+      <c r="O4">
+        <v>750</v>
+      </c>
       <c r="P4" t="s">
         <v>75</v>
       </c>
@@ -895,6 +917,15 @@
       <c r="H5">
         <v>50</v>
       </c>
+      <c r="M5" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5">
+        <v>1000</v>
+      </c>
+      <c r="O5">
+        <v>1000</v>
+      </c>
       <c r="P5" t="s">
         <v>75</v>
       </c>
@@ -940,6 +971,15 @@
       <c r="J6">
         <v>20</v>
       </c>
+      <c r="M6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N6">
+        <v>1250</v>
+      </c>
+      <c r="O6">
+        <v>1250</v>
+      </c>
       <c r="P6" t="s">
         <v>75</v>
       </c>
@@ -985,6 +1025,15 @@
       <c r="J7">
         <v>35</v>
       </c>
+      <c r="M7" t="s">
+        <v>85</v>
+      </c>
+      <c r="N7">
+        <v>1500</v>
+      </c>
+      <c r="O7">
+        <v>1500</v>
+      </c>
       <c r="P7" t="s">
         <v>75</v>
       </c>
@@ -1030,6 +1079,15 @@
       <c r="J8">
         <v>50</v>
       </c>
+      <c r="M8" t="s">
+        <v>85</v>
+      </c>
+      <c r="N8">
+        <v>1750</v>
+      </c>
+      <c r="O8">
+        <v>1750</v>
+      </c>
       <c r="P8" t="s">
         <v>75</v>
       </c>
@@ -1075,6 +1133,15 @@
       <c r="J9">
         <v>75</v>
       </c>
+      <c r="M9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N9">
+        <v>2000</v>
+      </c>
+      <c r="O9">
+        <v>2000</v>
+      </c>
       <c r="P9" t="s">
         <v>75</v>
       </c>
@@ -1120,6 +1187,15 @@
       <c r="J10">
         <v>100</v>
       </c>
+      <c r="M10" t="s">
+        <v>85</v>
+      </c>
+      <c r="N10">
+        <v>2250</v>
+      </c>
+      <c r="O10">
+        <v>2250</v>
+      </c>
       <c r="P10" t="s">
         <v>75</v>
       </c>
@@ -1143,6 +1219,15 @@
       </c>
       <c r="C11">
         <v>9</v>
+      </c>
+      <c r="M11" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11">
+        <v>2500</v>
+      </c>
+      <c r="O11">
+        <v>2500</v>
       </c>
       <c r="P11" t="s">
         <v>75</v>

--- a/Assets/Excel/BuildingUpgradeSO.xlsx
+++ b/Assets/Excel/BuildingUpgradeSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\TeamProject_CheerUpMyHero\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEFAEB1-5BF1-49D4-90B8-EA1AD5A371B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373E3F7C-298E-44E1-B8E1-A30048DBD321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{529EFE37-1A1C-40A3-AFC4-E608165EEB57}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="91">
   <si>
     <t>idNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,6 +324,25 @@
   </si>
   <si>
     <t>MaximumFood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Farm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LumberMill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barracks</t>
+  </si>
+  <si>
+    <t>BuildingType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -331,7 +350,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +373,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -378,11 +403,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -702,12 +730,12 @@
   <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -783,8 +811,11 @@
       <c r="Y1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z1" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2">
         <v>101</v>
       </c>
@@ -806,9 +837,11 @@
       <c r="Y2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z2" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3">
         <v>102</v>
       </c>
@@ -848,9 +881,11 @@
       <c r="Y3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z3" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>103</v>
       </c>
@@ -890,9 +925,11 @@
       <c r="Y4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Z4" s="1"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z4" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>104</v>
       </c>
@@ -938,9 +975,11 @@
       <c r="Y5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z5" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>105</v>
       </c>
@@ -992,9 +1031,11 @@
       <c r="Y6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z6" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>106</v>
       </c>
@@ -1046,9 +1087,11 @@
       <c r="Y7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>107</v>
       </c>
@@ -1100,9 +1143,11 @@
       <c r="Y8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z8" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>108</v>
       </c>
@@ -1154,9 +1199,11 @@
       <c r="Y9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z9" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>109</v>
       </c>
@@ -1208,9 +1255,11 @@
       <c r="Y10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z10" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>110</v>
       </c>
@@ -1241,9 +1290,11 @@
       <c r="Y11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z11" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12">
         <v>201</v>
       </c>
@@ -1265,9 +1316,11 @@
       <c r="Y12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z12" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13">
         <v>202</v>
       </c>
@@ -1298,9 +1351,11 @@
       <c r="Y13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Z13" s="1"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z13" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14">
         <v>203</v>
       </c>
@@ -1337,9 +1392,11 @@
       <c r="Y14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Z14" s="1"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z14" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15">
         <v>204</v>
       </c>
@@ -1391,9 +1448,11 @@
       <c r="Y15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Z15" s="1"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z15" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16">
         <v>205</v>
       </c>
@@ -1445,9 +1504,11 @@
       <c r="Y16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Z16" s="1"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z16" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17">
         <v>206</v>
       </c>
@@ -1499,9 +1560,11 @@
       <c r="Y17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Z17" s="1"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z17" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18">
         <v>207</v>
       </c>
@@ -1553,9 +1616,11 @@
       <c r="Y18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Z18" s="1"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z18" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19">
         <v>208</v>
       </c>
@@ -1607,9 +1672,11 @@
       <c r="Y19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Z19" s="1"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z19" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20">
         <v>209</v>
       </c>
@@ -1661,9 +1728,11 @@
       <c r="Y20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Z20" s="1"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z20" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21">
         <v>210</v>
       </c>
@@ -1694,9 +1763,11 @@
       <c r="Y21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Z21" s="1"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z21" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22">
         <v>301</v>
       </c>
@@ -1724,9 +1795,11 @@
       <c r="Y22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Z22" s="1"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z22" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23">
         <v>302</v>
       </c>
@@ -1763,8 +1836,11 @@
       <c r="Y23" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z23" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24">
         <v>303</v>
       </c>
@@ -1807,8 +1883,11 @@
       <c r="Y24" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z24" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25">
         <v>304</v>
       </c>
@@ -1860,8 +1939,11 @@
       <c r="Y25" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z25" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26">
         <v>305</v>
       </c>
@@ -1913,8 +1995,11 @@
       <c r="Y26" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z26" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27">
         <v>306</v>
       </c>
@@ -1972,8 +2057,11 @@
       <c r="Y27" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z27" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28">
         <v>307</v>
       </c>
@@ -2049,8 +2137,11 @@
       <c r="Y28" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z28" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29">
         <v>308</v>
       </c>
@@ -2126,8 +2217,11 @@
       <c r="Y29" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z29" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30">
         <v>309</v>
       </c>
@@ -2203,8 +2297,11 @@
       <c r="Y30" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z30" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31">
         <v>310</v>
       </c>
@@ -2253,8 +2350,11 @@
       <c r="Y31" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z31" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32">
         <v>401</v>
       </c>
@@ -2288,8 +2388,11 @@
       <c r="Y32" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z32" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33">
         <v>402</v>
       </c>
@@ -2332,8 +2435,11 @@
       <c r="Y33" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z33" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34">
         <v>403</v>
       </c>
@@ -2376,8 +2482,11 @@
       <c r="Y34" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z34" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35">
         <v>404</v>
       </c>
@@ -2429,8 +2538,11 @@
       <c r="Y35" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z35" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36">
         <v>405</v>
       </c>
@@ -2488,8 +2600,11 @@
       <c r="Y36" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z36" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37">
         <v>406</v>
       </c>
@@ -2547,8 +2662,11 @@
       <c r="Y37" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z37" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38">
         <v>407</v>
       </c>
@@ -2606,8 +2724,11 @@
       <c r="Y38" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z38" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
       <c r="A39">
         <v>408</v>
       </c>
@@ -2665,8 +2786,11 @@
       <c r="Y39" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z39" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
       <c r="A40">
         <v>409</v>
       </c>
@@ -2724,8 +2848,11 @@
       <c r="Y40" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z40" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
       <c r="A41">
         <v>410</v>
       </c>
@@ -2764,6 +2891,9 @@
       </c>
       <c r="Y41" s="1" t="s">
         <v>74</v>
+      </c>
+      <c r="Z41" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/BuildingUpgradeSO.xlsx
+++ b/Assets/Excel/BuildingUpgradeSO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\TeamProject_CheerUpMyHero\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373E3F7C-298E-44E1-B8E1-A30048DBD321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B206658C-12A8-41C7-AF41-8372DA1782EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{529EFE37-1A1C-40A3-AFC4-E608165EEB57}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{529EFE37-1A1C-40A3-AFC4-E608165EEB57}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingUpgrade" sheetId="1" r:id="rId1"/>
@@ -303,10 +303,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MaxPopulation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MagicStoneFindChance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -343,6 +339,10 @@
   </si>
   <si>
     <t>BuildingType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitCoolDown</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A90E86-42B4-4D3F-9CF6-60D01B3BDC85}">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -812,7 +812,7 @@
         <v>4</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -838,7 +838,7 @@
         <v>18</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -861,7 +861,7 @@
         <v>200</v>
       </c>
       <c r="M3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N3">
         <v>500</v>
@@ -882,7 +882,7 @@
         <v>19</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -905,7 +905,7 @@
         <v>450</v>
       </c>
       <c r="M4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N4">
         <v>750</v>
@@ -926,7 +926,7 @@
         <v>20</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -955,7 +955,7 @@
         <v>50</v>
       </c>
       <c r="M5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N5">
         <v>1000</v>
@@ -976,7 +976,7 @@
         <v>21</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -1011,7 +1011,7 @@
         <v>20</v>
       </c>
       <c r="M6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N6">
         <v>1250</v>
@@ -1032,7 +1032,7 @@
         <v>22</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1067,7 +1067,7 @@
         <v>35</v>
       </c>
       <c r="M7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N7">
         <v>1500</v>
@@ -1088,7 +1088,7 @@
         <v>23</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1123,7 +1123,7 @@
         <v>50</v>
       </c>
       <c r="M8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N8">
         <v>1750</v>
@@ -1144,7 +1144,7 @@
         <v>24</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1179,7 +1179,7 @@
         <v>75</v>
       </c>
       <c r="M9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N9">
         <v>2000</v>
@@ -1200,7 +1200,7 @@
         <v>25</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1235,7 +1235,7 @@
         <v>100</v>
       </c>
       <c r="M10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N10">
         <v>2250</v>
@@ -1256,7 +1256,7 @@
         <v>26</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1270,7 +1270,7 @@
         <v>9</v>
       </c>
       <c r="M11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N11">
         <v>2500</v>
@@ -1291,7 +1291,7 @@
         <v>27</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1317,7 +1317,7 @@
         <v>53</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -1352,7 +1352,7 @@
         <v>29</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1393,7 +1393,7 @@
         <v>30</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -1449,7 +1449,7 @@
         <v>31</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -1505,7 +1505,7 @@
         <v>32</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -1561,7 +1561,7 @@
         <v>33</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -1617,7 +1617,7 @@
         <v>34</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -1673,7 +1673,7 @@
         <v>35</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -1729,7 +1729,7 @@
         <v>36</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -1764,7 +1764,7 @@
         <v>37</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -1796,7 +1796,7 @@
         <v>54</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -1837,7 +1837,7 @@
         <v>55</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -1884,7 +1884,7 @@
         <v>56</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -1940,7 +1940,7 @@
         <v>57</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -1996,7 +1996,7 @@
         <v>58</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -2058,7 +2058,7 @@
         <v>59</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -2117,7 +2117,7 @@
         <v>10</v>
       </c>
       <c r="S28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T28">
         <v>10</v>
@@ -2126,7 +2126,7 @@
         <v>10</v>
       </c>
       <c r="V28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W28">
         <v>1</v>
@@ -2138,7 +2138,7 @@
         <v>60</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -2206,7 +2206,7 @@
         <v>20</v>
       </c>
       <c r="V29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W29">
         <v>3</v>
@@ -2218,7 +2218,7 @@
         <v>61</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -2286,7 +2286,7 @@
         <v>30</v>
       </c>
       <c r="V30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W30">
         <v>5</v>
@@ -2298,7 +2298,7 @@
         <v>62</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -2339,7 +2339,7 @@
         <v>50</v>
       </c>
       <c r="V31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W31">
         <v>10</v>
@@ -2351,7 +2351,7 @@
         <v>63</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:26">
@@ -2389,7 +2389,7 @@
         <v>65</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:26">
@@ -2424,19 +2424,19 @@
         <v>25</v>
       </c>
       <c r="M33" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N33">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O33">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>66</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:26">
@@ -2471,19 +2471,19 @@
         <v>60</v>
       </c>
       <c r="M34" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N34">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="O34">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>67</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:26">
@@ -2518,16 +2518,16 @@
         <v>100</v>
       </c>
       <c r="M35" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N35">
-        <v>40</v>
+        <v>7.5</v>
       </c>
       <c r="O35">
-        <v>40</v>
+        <v>7.5</v>
       </c>
       <c r="P35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q35">
         <v>1</v>
@@ -2539,7 +2539,7 @@
         <v>68</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:26">
@@ -2580,16 +2580,16 @@
         <v>1</v>
       </c>
       <c r="M36" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N36">
-        <v>50</v>
+        <v>7.5</v>
       </c>
       <c r="O36">
-        <v>50</v>
+        <v>7.5</v>
       </c>
       <c r="P36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -2601,7 +2601,7 @@
         <v>69</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:26">
@@ -2642,16 +2642,16 @@
         <v>15</v>
       </c>
       <c r="M37" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N37">
-        <v>60</v>
+        <v>7.5</v>
       </c>
       <c r="O37">
-        <v>60</v>
+        <v>7.5</v>
       </c>
       <c r="P37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q37">
         <v>1</v>
@@ -2663,7 +2663,7 @@
         <v>70</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:26">
@@ -2704,16 +2704,16 @@
         <v>35</v>
       </c>
       <c r="M38" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N38">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="O38">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="P38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -2725,7 +2725,7 @@
         <v>71</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:26">
@@ -2766,16 +2766,16 @@
         <v>70</v>
       </c>
       <c r="M39" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N39">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="O39">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="P39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -2787,7 +2787,7 @@
         <v>72</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:26">
@@ -2828,16 +2828,16 @@
         <v>120</v>
       </c>
       <c r="M40" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N40">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="O40">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="P40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -2849,7 +2849,7 @@
         <v>73</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:26">
@@ -2863,16 +2863,16 @@
         <v>9</v>
       </c>
       <c r="M41" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N41">
-        <v>100</v>
+        <v>12.5</v>
       </c>
       <c r="O41">
-        <v>100</v>
+        <v>12.5</v>
       </c>
       <c r="P41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -2881,7 +2881,7 @@
         <v>3</v>
       </c>
       <c r="S41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T41">
         <v>1</v>
@@ -2893,7 +2893,7 @@
         <v>74</v>
       </c>
       <c r="Z41" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
